--- a/2 - Synthetic Metadata/Timber Mountain - AB Test Metadata.xlsx
+++ b/2 - Synthetic Metadata/Timber Mountain - AB Test Metadata.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/andrerand/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/andrerand/Library/CloudStorage/Box-Box/Marcom Data Science/02 - Marcom Optimization Program/4 - Research &amp; Development/10 - Timber Mountain AI Chatbot/2 - Synthetic Metadata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73646613-1303-D343-B256-5B13EF7B11DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E56A676-FE14-9E47-A55A-56865A0C9F50}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3520" yWindow="2100" windowWidth="37440" windowHeight="19220" xr2:uid="{61EF2314-5D4B-AF48-B9C4-CBFD0DBBDC35}"/>
+    <workbookView xWindow="14240" yWindow="720" windowWidth="37440" windowHeight="19220" xr2:uid="{61EF2314-5D4B-AF48-B9C4-CBFD0DBBDC35}"/>
   </bookViews>
   <sheets>
     <sheet name="Metadata" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="42">
   <si>
     <t>Test Name</t>
   </si>
@@ -319,6 +319,24 @@
   </si>
   <si>
     <t>Wild Willy: AI Travel Planner - Itinerary Results List</t>
+  </si>
+  <si>
+    <t>PDF File Name</t>
+  </si>
+  <si>
+    <t>5 - Homepage-Special-Offers-Carousel-Merchandising-Test-Results.pdf</t>
+  </si>
+  <si>
+    <t>4 - Timber-Mountain-CTA-Copy-Test-Results.pdf</t>
+  </si>
+  <si>
+    <t>3 - Timber-Mountain-Unified-Bundle-Flow-Checkout-Test-Results.pdf</t>
+  </si>
+  <si>
+    <t>2 - Wild-Willy-AI-Planner-Trust-and-Adoption-AB-Test-Results.pdf</t>
+  </si>
+  <si>
+    <t>1 - Locale-Aware-Experience-How-We-Boosted-International-Conversions-at-Timber-Mountain.pdf</t>
   </si>
 </sst>
 </file>
@@ -723,175 +741,193 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A12B0FF-EF7B-B748-ADFD-7128733EA329}">
-  <dimension ref="A1:H6"/>
+  <dimension ref="A1:I6"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="88" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="53.1640625" style="3" customWidth="1"/>
-    <col min="4" max="4" width="30.1640625" customWidth="1"/>
-    <col min="5" max="5" width="37.6640625" style="3" customWidth="1"/>
-    <col min="6" max="6" width="44.1640625" customWidth="1"/>
-    <col min="7" max="7" width="62.5" style="3" customWidth="1"/>
-    <col min="8" max="8" width="117.5" style="3" customWidth="1"/>
+    <col min="1" max="2" width="53.1640625" style="3" customWidth="1"/>
+    <col min="5" max="5" width="30.1640625" customWidth="1"/>
+    <col min="6" max="6" width="37.6640625" style="3" customWidth="1"/>
+    <col min="7" max="7" width="44.1640625" customWidth="1"/>
+    <col min="8" max="8" width="62.5" style="3" customWidth="1"/>
+    <col min="9" max="9" width="117.5" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="D1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="E1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="F1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="G1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="H1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="I1" s="4" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="51" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" ht="51" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="1">
+      <c r="B2" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C2" s="1">
         <v>45481</v>
       </c>
-      <c r="C2" s="1">
+      <c r="D2" s="1">
         <v>45501</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>14</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="F2" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>10</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="H2" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="I2" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="1">
+      <c r="B3" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C3" s="1">
         <v>45509</v>
       </c>
-      <c r="C3" s="1">
+      <c r="D3" s="1">
         <v>45529</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>33</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="F3" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="F3" t="s">
+      <c r="G3" t="s">
         <v>35</v>
       </c>
-      <c r="G3" s="3" t="s">
+      <c r="H3" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="H3" s="2" t="s">
+      <c r="I3" s="2" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="51" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" ht="51" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B4" s="1">
+      <c r="B4" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C4" s="1">
         <v>45537</v>
       </c>
-      <c r="C4" s="1">
+      <c r="D4" s="1">
         <v>45557</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
         <v>18</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="F4" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="F4" t="s">
+      <c r="G4" t="s">
         <v>20</v>
       </c>
-      <c r="G4" s="3" t="s">
+      <c r="H4" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="H4" s="2" t="s">
+      <c r="I4" s="2" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B5" s="1">
+      <c r="B5" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C5" s="1">
         <v>45572</v>
       </c>
-      <c r="C5" s="1">
+      <c r="D5" s="1">
         <v>45586</v>
       </c>
-      <c r="D5" t="s">
+      <c r="E5" t="s">
         <v>14</v>
       </c>
-      <c r="E5" s="3" t="s">
+      <c r="F5" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="F5" t="s">
+      <c r="G5" t="s">
         <v>25</v>
       </c>
-      <c r="G5" s="3" t="s">
+      <c r="H5" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="H5" s="2" t="s">
+      <c r="I5" s="2" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="51" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9" ht="51" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="B6" s="1">
+      <c r="B6" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C6" s="1">
         <v>45600</v>
       </c>
-      <c r="C6" s="1">
+      <c r="D6" s="1">
         <v>45620</v>
       </c>
-      <c r="D6" t="s">
+      <c r="E6" t="s">
         <v>18</v>
       </c>
-      <c r="E6" s="3" t="s">
+      <c r="F6" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="F6" t="s">
+      <c r="G6" t="s">
         <v>30</v>
       </c>
-      <c r="G6" s="3" t="s">
+      <c r="H6" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="H6" s="2" t="s">
+      <c r="I6" s="2" t="s">
         <v>32</v>
       </c>
     </row>

--- a/2 - Synthetic Metadata/Timber Mountain - AB Test Metadata.xlsx
+++ b/2 - Synthetic Metadata/Timber Mountain - AB Test Metadata.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/andrerand/Library/CloudStorage/Box-Box/Marcom Data Science/02 - Marcom Optimization Program/4 - Research &amp; Development/10 - Timber Mountain AI Chatbot/2 - Synthetic Metadata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E56A676-FE14-9E47-A55A-56865A0C9F50}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9EEBB7C0-DFB6-6A46-AFA0-9E2D43A540AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14240" yWindow="720" windowWidth="37440" windowHeight="19220" xr2:uid="{61EF2314-5D4B-AF48-B9C4-CBFD0DBBDC35}"/>
+    <workbookView xWindow="3520" yWindow="720" windowWidth="37440" windowHeight="19220" xr2:uid="{61EF2314-5D4B-AF48-B9C4-CBFD0DBBDC35}"/>
   </bookViews>
   <sheets>
     <sheet name="Metadata" sheetId="1" r:id="rId1"/>
@@ -744,7 +744,7 @@
   <dimension ref="A1:I6"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="88" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
